--- a/artfynd/Glesskallberget artfynd.xlsx
+++ b/artfynd/Glesskallberget artfynd.xlsx
@@ -1926,7 +1926,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>55948240</v>
+        <v>55947372</v>
       </c>
       <c r="B14" t="n">
         <v>91210</v>
@@ -1957,14 +1957,14 @@
       <c r="I14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>678486</v>
+        <v>679213</v>
       </c>
       <c r="R14" t="n">
-        <v>7077467</v>
+        <v>7075880</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2027,10 +2027,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>55947390</v>
+        <v>55948240</v>
       </c>
       <c r="B15" t="n">
-        <v>98278</v>
+        <v>91210</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2038,34 +2038,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>219790</v>
+        <v>5447</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>678733</v>
+        <v>678486</v>
       </c>
       <c r="R15" t="n">
-        <v>7076186</v>
+        <v>7077467</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2087,17 +2087,17 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2330,10 +2330,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>55947372</v>
+        <v>55947390</v>
       </c>
       <c r="B18" t="n">
-        <v>91210</v>
+        <v>98278</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2341,21 +2341,21 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5447</v>
+        <v>219790</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2365,10 +2365,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>679213</v>
+        <v>678733</v>
       </c>
       <c r="R18" t="n">
-        <v>7075880</v>
+        <v>7076186</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2395,12 +2395,12 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2533,7 +2533,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>105311654</v>
+        <v>54482333</v>
       </c>
       <c r="B20" t="n">
         <v>79012</v>
@@ -2564,17 +2564,17 @@
       <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Lill-Rödtjärnen, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>679552</v>
+        <v>678182</v>
       </c>
       <c r="R20" t="n">
-        <v>7075598</v>
+        <v>7077239</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2593,17 +2593,17 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2614,31 +2614,26 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AS20" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>105314967</v>
+        <v>55947421</v>
       </c>
       <c r="B21" t="n">
-        <v>91245</v>
+        <v>88654</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2646,37 +2641,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Lill-Rödtjärnen, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>679360</v>
+        <v>677868</v>
       </c>
       <c r="R21" t="n">
-        <v>7075777</v>
+        <v>7075032</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2700,12 +2695,12 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -2716,53 +2711,52 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AS21" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY21" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>55947433</v>
+        <v>55947375</v>
       </c>
       <c r="B22" t="n">
-        <v>91245</v>
+        <v>91603</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -2772,10 +2766,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>677531</v>
+        <v>679249</v>
       </c>
       <c r="R22" t="n">
-        <v>7075863</v>
+        <v>7075841</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -2802,12 +2796,12 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -2838,45 +2832,45 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>55947375</v>
+        <v>55948246</v>
       </c>
       <c r="B23" t="n">
-        <v>91603</v>
+        <v>80083</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2062</v>
+        <v>6458</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>679249</v>
+        <v>678819</v>
       </c>
       <c r="R23" t="n">
-        <v>7075841</v>
+        <v>7076412</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -2898,17 +2892,17 @@
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3040,10 +3034,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>55947421</v>
+        <v>54482604</v>
       </c>
       <c r="B25" t="n">
-        <v>88654</v>
+        <v>80083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3051,34 +3045,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>677868</v>
+        <v>678853</v>
       </c>
       <c r="R25" t="n">
-        <v>7075032</v>
+        <v>7077204</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3100,17 +3094,17 @@
       </c>
       <c r="W25" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3125,61 +3119,63 @@
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX25" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY25" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>55948246</v>
+        <v>67444668</v>
       </c>
       <c r="B26" t="n">
-        <v>80083</v>
+        <v>91699</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Stor-Kärrsjöberget, Kärrsjö, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>678819</v>
+        <v>677740</v>
       </c>
       <c r="R26" t="n">
-        <v>7076412</v>
+        <v>7073851</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3201,17 +3197,22 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2017-08-30</t>
+        </is>
+      </c>
+      <c r="AC26" t="inlineStr">
+        <is>
+          <t>2-3 dm2 på grov granlåga.</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3220,32 +3221,29 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Per Holgén</t>
         </is>
       </c>
       <c r="AX26" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY26" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Per Holgén</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>54482333</v>
+        <v>55947433</v>
       </c>
       <c r="B27" t="n">
-        <v>79012</v>
+        <v>91245</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3253,34 +3251,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>678182</v>
+        <v>677531</v>
       </c>
       <c r="R27" t="n">
-        <v>7077239</v>
+        <v>7075863</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3302,17 +3300,17 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3327,22 +3325,26 @@
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX27" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY27" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>54482604</v>
+        <v>105311654</v>
       </c>
       <c r="B28" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3350,37 +3352,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Lill-Rödtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>678853</v>
+        <v>679552</v>
       </c>
       <c r="R28" t="n">
-        <v>7077204</v>
+        <v>7075598</v>
       </c>
       <c r="S28" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28" t="inlineStr">
         <is>
@@ -3399,17 +3401,17 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3420,70 +3422,69 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AS28" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX28" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Tomas Rask</t>
         </is>
       </c>
       <c r="AY28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>67444668</v>
+        <v>105314967</v>
       </c>
       <c r="B29" t="n">
-        <v>91699</v>
+        <v>91245</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Stor-Kärrsjöberget, Kärrsjö, Ång</t>
+          <t>Lill-Rödtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>677740</v>
+        <v>679360</v>
       </c>
       <c r="R29" t="n">
-        <v>7073851</v>
+        <v>7075777</v>
       </c>
       <c r="S29" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T29" t="inlineStr">
         <is>
@@ -3507,17 +3508,12 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>2017-08-30</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>2017-08-30</t>
-        </is>
-      </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>2-3 dm2 på grov granlåga.</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3526,19 +3522,23 @@
       <c r="AE29" t="b">
         <v>0</v>
       </c>
-      <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AS29" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
         <is>
-          <t>Per Holgén</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX29" t="inlineStr">
         <is>
-          <t>Per Holgén</t>
+          <t>Tomas Rask</t>
         </is>
       </c>
       <c r="AY29" t="inlineStr"/>
@@ -4963,7 +4963,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>67444792</v>
+        <v>55947403</v>
       </c>
       <c r="B44" t="n">
         <v>80083</v>
@@ -4992,18 +4992,16 @@
         </is>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Långtjärnen, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q44" t="n">
-        <v>678474</v>
+        <v>678681</v>
       </c>
       <c r="R44" t="n">
-        <v>7073925</v>
+        <v>7075223</v>
       </c>
       <c r="S44" t="n">
         <v>10</v>
@@ -5030,17 +5028,12 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>2017-08-30</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>2017-08-30</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>Rikligt på grov sälg.</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD44" t="b">
@@ -5055,22 +5048,26 @@
       <c r="AT44" t="inlineStr"/>
       <c r="AW44" t="inlineStr">
         <is>
-          <t>Per Holgén</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX44" t="inlineStr">
         <is>
-          <t>Per Holgén</t>
-        </is>
-      </c>
-      <c r="AY44" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY44" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>55948245</v>
+        <v>55947427</v>
       </c>
       <c r="B45" t="n">
-        <v>80084</v>
+        <v>80083</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -5078,34 +5075,34 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>2081</v>
+        <v>6458</v>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q45" t="n">
-        <v>678819</v>
+        <v>677476</v>
       </c>
       <c r="R45" t="n">
-        <v>7076412</v>
+        <v>7075495</v>
       </c>
       <c r="S45" t="n">
         <v>10</v>
@@ -5127,17 +5124,17 @@
       </c>
       <c r="W45" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD45" t="b">
@@ -5168,10 +5165,10 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>55947432</v>
+        <v>55947396</v>
       </c>
       <c r="B46" t="n">
-        <v>80084</v>
+        <v>78980</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -5179,21 +5176,21 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>2081</v>
+        <v>6425</v>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I46" t="inlineStr"/>
@@ -5203,10 +5200,10 @@
         </is>
       </c>
       <c r="Q46" t="n">
-        <v>677514</v>
+        <v>679148</v>
       </c>
       <c r="R46" t="n">
-        <v>7075758</v>
+        <v>7076104</v>
       </c>
       <c r="S46" t="n">
         <v>10</v>
@@ -5269,10 +5266,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>55947403</v>
+        <v>55948245</v>
       </c>
       <c r="B47" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -5280,34 +5277,34 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q47" t="n">
-        <v>678681</v>
+        <v>678819</v>
       </c>
       <c r="R47" t="n">
-        <v>7075223</v>
+        <v>7076412</v>
       </c>
       <c r="S47" t="n">
         <v>10</v>
@@ -5329,17 +5326,17 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD47" t="b">
@@ -5370,10 +5367,10 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>55947427</v>
+        <v>55947432</v>
       </c>
       <c r="B48" t="n">
-        <v>80083</v>
+        <v>80084</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -5381,21 +5378,21 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>6458</v>
+        <v>2081</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I48" t="inlineStr"/>
@@ -5405,10 +5402,10 @@
         </is>
       </c>
       <c r="Q48" t="n">
-        <v>677476</v>
+        <v>677514</v>
       </c>
       <c r="R48" t="n">
-        <v>7075495</v>
+        <v>7075758</v>
       </c>
       <c r="S48" t="n">
         <v>10</v>
@@ -5576,10 +5573,10 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>55947396</v>
+        <v>67444792</v>
       </c>
       <c r="B50" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5587,34 +5584,36 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="P50" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Långtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q50" t="n">
-        <v>679148</v>
+        <v>678474</v>
       </c>
       <c r="R50" t="n">
-        <v>7076104</v>
+        <v>7073925</v>
       </c>
       <c r="S50" t="n">
         <v>10</v>
@@ -5641,12 +5640,17 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2017-08-30</t>
         </is>
       </c>
       <c r="AA50" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2017-08-30</t>
+        </is>
+      </c>
+      <c r="AC50" t="inlineStr">
+        <is>
+          <t>Rikligt på grov sälg.</t>
         </is>
       </c>
       <c r="AD50" t="b">
@@ -5661,19 +5665,15 @@
       <c r="AT50" t="inlineStr"/>
       <c r="AW50" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Per Holgén</t>
         </is>
       </c>
       <c r="AX50" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY50" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Per Holgén</t>
+        </is>
+      </c>
+      <c r="AY50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -7800,10 +7800,10 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>113679626</v>
+        <v>55948243</v>
       </c>
       <c r="B72" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -7811,34 +7811,34 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="P72" t="inlineStr">
         <is>
-          <t>Högslätten, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q72" t="n">
-        <v>678358</v>
+        <v>678823</v>
       </c>
       <c r="R72" t="n">
-        <v>7077603</v>
+        <v>7077229</v>
       </c>
       <c r="S72" t="n">
         <v>10</v>
@@ -7865,12 +7865,12 @@
       </c>
       <c r="Y72" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA72" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD72" t="b">
@@ -7881,70 +7881,65 @@
       </c>
       <c r="AG72" t="b">
         <v>0</v>
-      </c>
-      <c r="AS72" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT72" t="inlineStr"/>
       <c r="AW72" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX72" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
+          <t>Naturvärdesinventering Y-län</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>113679623</v>
+        <v>55947409</v>
       </c>
       <c r="B73" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="P73" t="inlineStr">
         <is>
-          <t>Högslätten, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q73" t="n">
-        <v>678529</v>
+        <v>678395</v>
       </c>
       <c r="R73" t="n">
-        <v>7077573</v>
+        <v>7075228</v>
       </c>
       <c r="S73" t="n">
         <v>10</v>
@@ -7966,17 +7961,17 @@
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA73" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD73" t="b">
@@ -7987,70 +7982,65 @@
       </c>
       <c r="AG73" t="b">
         <v>0</v>
-      </c>
-      <c r="AS73" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT73" t="inlineStr"/>
       <c r="AW73" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX73" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
+          <t>Naturvärdesinventering Y-län</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>113679617</v>
+        <v>55947369</v>
       </c>
       <c r="B74" t="n">
-        <v>80112</v>
+        <v>91263</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>6462</v>
+        <v>5432</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="P74" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q74" t="n">
-        <v>678964</v>
+        <v>679070</v>
       </c>
       <c r="R74" t="n">
-        <v>7076893</v>
+        <v>7075991</v>
       </c>
       <c r="S74" t="n">
         <v>10</v>
@@ -8072,17 +8062,17 @@
       </c>
       <c r="W74" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA74" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD74" t="b">
@@ -8093,70 +8083,65 @@
       </c>
       <c r="AG74" t="b">
         <v>0</v>
-      </c>
-      <c r="AS74" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT74" t="inlineStr"/>
       <c r="AW74" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX74" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
+          <t>Naturvärdesinventering Y-län</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>55948243</v>
+        <v>55947431</v>
       </c>
       <c r="B75" t="n">
-        <v>79012</v>
+        <v>80119</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>185</v>
+        <v>6464</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Luddlav</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Nephroma resupinatum</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(L.) Ach.</t>
         </is>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="P75" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q75" t="n">
-        <v>678823</v>
+        <v>677514</v>
       </c>
       <c r="R75" t="n">
-        <v>7077229</v>
+        <v>7075758</v>
       </c>
       <c r="S75" t="n">
         <v>10</v>
@@ -8178,17 +8163,17 @@
       </c>
       <c r="W75" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA75" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD75" t="b">
@@ -8219,10 +8204,10 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>55947409</v>
+        <v>113679626</v>
       </c>
       <c r="B76" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -8230,34 +8215,34 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Högslätten, Ång</t>
         </is>
       </c>
       <c r="Q76" t="n">
-        <v>678395</v>
+        <v>678358</v>
       </c>
       <c r="R76" t="n">
-        <v>7075228</v>
+        <v>7077603</v>
       </c>
       <c r="S76" t="n">
         <v>10</v>
@@ -8279,17 +8264,17 @@
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AA76" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AD76" t="b">
@@ -8300,65 +8285,70 @@
       </c>
       <c r="AG76" t="b">
         <v>0</v>
+      </c>
+      <c r="AS76" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT76" t="inlineStr"/>
       <c r="AW76" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX76" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY76" t="inlineStr">
         <is>
-          <t>Naturvärdesinventering Y-län</t>
+          <t xml:space="preserve">Naturvärdesinventering </t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>55947369</v>
+        <v>113679623</v>
       </c>
       <c r="B77" t="n">
-        <v>91263</v>
+        <v>80112</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>5432</v>
+        <v>6462</v>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="P77" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Högslätten, Ång</t>
         </is>
       </c>
       <c r="Q77" t="n">
-        <v>679070</v>
+        <v>678529</v>
       </c>
       <c r="R77" t="n">
-        <v>7075991</v>
+        <v>7077573</v>
       </c>
       <c r="S77" t="n">
         <v>10</v>
@@ -8380,17 +8370,17 @@
       </c>
       <c r="W77" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AA77" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AD77" t="b">
@@ -8401,30 +8391,35 @@
       </c>
       <c r="AG77" t="b">
         <v>0</v>
+      </c>
+      <c r="AS77" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT77" t="inlineStr"/>
       <c r="AW77" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX77" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY77" t="inlineStr">
         <is>
-          <t>Naturvärdesinventering Y-län</t>
+          <t xml:space="preserve">Naturvärdesinventering </t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>55947431</v>
+        <v>113679617</v>
       </c>
       <c r="B78" t="n">
-        <v>80119</v>
+        <v>80112</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -8432,34 +8427,34 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>6464</v>
+        <v>6462</v>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Luddlav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Nephroma resupinatum</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>(L.) Ach.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="P78" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q78" t="n">
-        <v>677514</v>
+        <v>678964</v>
       </c>
       <c r="R78" t="n">
-        <v>7075758</v>
+        <v>7076893</v>
       </c>
       <c r="S78" t="n">
         <v>10</v>
@@ -8481,17 +8476,17 @@
       </c>
       <c r="W78" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AA78" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AD78" t="b">
@@ -8502,21 +8497,26 @@
       </c>
       <c r="AG78" t="b">
         <v>0</v>
+      </c>
+      <c r="AS78" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT78" t="inlineStr"/>
       <c r="AW78" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX78" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson, Tomas Rask</t>
         </is>
       </c>
       <c r="AY78" t="inlineStr">
         <is>
-          <t>Naturvärdesinventering Y-län</t>
+          <t xml:space="preserve">Naturvärdesinventering </t>
         </is>
       </c>
     </row>
@@ -8838,32 +8838,32 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>105311440</v>
+        <v>105311433</v>
       </c>
       <c r="B82" t="n">
-        <v>80083</v>
+        <v>80112</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>6458</v>
+        <v>6462</v>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I82" t="inlineStr"/>
@@ -8873,10 +8873,10 @@
         </is>
       </c>
       <c r="Q82" t="n">
-        <v>678621</v>
+        <v>679218</v>
       </c>
       <c r="R82" t="n">
-        <v>7075915</v>
+        <v>7076299</v>
       </c>
       <c r="S82" t="n">
         <v>5</v>
@@ -8940,32 +8940,32 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>105311433</v>
+        <v>105311440</v>
       </c>
       <c r="B83" t="n">
-        <v>80112</v>
+        <v>80083</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>6462</v>
+        <v>6458</v>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I83" t="inlineStr"/>
@@ -8975,10 +8975,10 @@
         </is>
       </c>
       <c r="Q83" t="n">
-        <v>679218</v>
+        <v>678621</v>
       </c>
       <c r="R83" t="n">
-        <v>7076299</v>
+        <v>7075915</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -9333,10 +9333,10 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>54482327</v>
+        <v>55947361</v>
       </c>
       <c r="B87" t="n">
-        <v>79012</v>
+        <v>88654</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -9344,34 +9344,34 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>185</v>
+        <v>510</v>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="P87" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q87" t="n">
-        <v>677635</v>
+        <v>677791</v>
       </c>
       <c r="R87" t="n">
-        <v>7076883</v>
+        <v>7075497</v>
       </c>
       <c r="S87" t="n">
         <v>10</v>
@@ -9393,17 +9393,17 @@
       </c>
       <c r="W87" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA87" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD87" t="b">
@@ -9418,22 +9418,26 @@
       <c r="AT87" t="inlineStr"/>
       <c r="AW87" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX87" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY87" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY87" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>54482334</v>
+        <v>55948234</v>
       </c>
       <c r="B88" t="n">
-        <v>79012</v>
+        <v>88654</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -9441,21 +9445,21 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>185</v>
+        <v>510</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I88" t="inlineStr"/>
@@ -9465,10 +9469,10 @@
         </is>
       </c>
       <c r="Q88" t="n">
-        <v>678350</v>
+        <v>677827</v>
       </c>
       <c r="R88" t="n">
-        <v>7077366</v>
+        <v>7077211</v>
       </c>
       <c r="S88" t="n">
         <v>10</v>
@@ -9515,44 +9519,48 @@
       <c r="AT88" t="inlineStr"/>
       <c r="AW88" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX88" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY88" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY88" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>55947361</v>
+        <v>55947363</v>
       </c>
       <c r="B89" t="n">
-        <v>88654</v>
+        <v>91256</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>510</v>
+        <v>1205</v>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Stor aspticka</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinus populicola</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I89" t="inlineStr"/>
@@ -9562,10 +9570,10 @@
         </is>
       </c>
       <c r="Q89" t="n">
-        <v>677791</v>
+        <v>677658</v>
       </c>
       <c r="R89" t="n">
-        <v>7075497</v>
+        <v>7075535</v>
       </c>
       <c r="S89" t="n">
         <v>10</v>
@@ -9628,45 +9636,45 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>55948234</v>
+        <v>55947408</v>
       </c>
       <c r="B90" t="n">
-        <v>88654</v>
+        <v>91210</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="P90" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q90" t="n">
-        <v>677827</v>
+        <v>678445</v>
       </c>
       <c r="R90" t="n">
-        <v>7077211</v>
+        <v>7075192</v>
       </c>
       <c r="S90" t="n">
         <v>10</v>
@@ -9688,17 +9696,17 @@
       </c>
       <c r="W90" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA90" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD90" t="b">
@@ -9729,32 +9737,32 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>55947363</v>
+        <v>55947420</v>
       </c>
       <c r="B91" t="n">
-        <v>91256</v>
+        <v>80083</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>1205</v>
+        <v>6458</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Stor aspticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Phellinus populicola</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -9764,10 +9772,10 @@
         </is>
       </c>
       <c r="Q91" t="n">
-        <v>677658</v>
+        <v>677882</v>
       </c>
       <c r="R91" t="n">
-        <v>7075535</v>
+        <v>7075205</v>
       </c>
       <c r="S91" t="n">
         <v>10</v>
@@ -9794,12 +9802,12 @@
       </c>
       <c r="Y91" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA91" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD91" t="b">
@@ -9830,32 +9838,32 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>55947364</v>
+        <v>55947365</v>
       </c>
       <c r="B92" t="n">
-        <v>79179</v>
+        <v>80083</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>1642</v>
+        <v>6458</v>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Långskägg</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Usnea longissima</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I92" t="inlineStr"/>
@@ -9865,10 +9873,10 @@
         </is>
       </c>
       <c r="Q92" t="n">
-        <v>677646</v>
+        <v>678298</v>
       </c>
       <c r="R92" t="n">
-        <v>7075536</v>
+        <v>7075829</v>
       </c>
       <c r="S92" t="n">
         <v>10</v>
@@ -9931,45 +9939,45 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>55947408</v>
+        <v>54482327</v>
       </c>
       <c r="B93" t="n">
-        <v>91210</v>
+        <v>79012</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>5447</v>
+        <v>185</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="P93" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q93" t="n">
-        <v>678445</v>
+        <v>677635</v>
       </c>
       <c r="R93" t="n">
-        <v>7075192</v>
+        <v>7076883</v>
       </c>
       <c r="S93" t="n">
         <v>10</v>
@@ -9991,17 +9999,17 @@
       </c>
       <c r="W93" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA93" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD93" t="b">
@@ -10016,26 +10024,22 @@
       <c r="AT93" t="inlineStr"/>
       <c r="AW93" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX93" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY93" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>55948236</v>
+        <v>54482334</v>
       </c>
       <c r="B94" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -10043,21 +10047,21 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I94" t="inlineStr"/>
@@ -10067,10 +10071,10 @@
         </is>
       </c>
       <c r="Q94" t="n">
-        <v>677903</v>
+        <v>678350</v>
       </c>
       <c r="R94" t="n">
-        <v>7077110</v>
+        <v>7077366</v>
       </c>
       <c r="S94" t="n">
         <v>10</v>
@@ -10117,48 +10121,44 @@
       <c r="AT94" t="inlineStr"/>
       <c r="AW94" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX94" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY94" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>55947420</v>
+        <v>55947364</v>
       </c>
       <c r="B95" t="n">
-        <v>80083</v>
+        <v>79179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>6458</v>
+        <v>1642</v>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Långskägg</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Usnea longissima</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I95" t="inlineStr"/>
@@ -10168,10 +10168,10 @@
         </is>
       </c>
       <c r="Q95" t="n">
-        <v>677882</v>
+        <v>677646</v>
       </c>
       <c r="R95" t="n">
-        <v>7075205</v>
+        <v>7075536</v>
       </c>
       <c r="S95" t="n">
         <v>10</v>
@@ -10198,12 +10198,12 @@
       </c>
       <c r="Y95" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA95" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD95" t="b">
@@ -10234,10 +10234,10 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>55947365</v>
+        <v>55948236</v>
       </c>
       <c r="B96" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -10245,34 +10245,34 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="P96" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q96" t="n">
-        <v>678298</v>
+        <v>677903</v>
       </c>
       <c r="R96" t="n">
-        <v>7075829</v>
+        <v>7077110</v>
       </c>
       <c r="S96" t="n">
         <v>10</v>
@@ -10294,17 +10294,17 @@
       </c>
       <c r="W96" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA96" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD96" t="b">
@@ -10635,10 +10635,10 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>55947357</v>
+        <v>55947422</v>
       </c>
       <c r="B100" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -10646,21 +10646,21 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I100" t="inlineStr"/>
@@ -10670,10 +10670,10 @@
         </is>
       </c>
       <c r="Q100" t="n">
-        <v>678127</v>
+        <v>677865</v>
       </c>
       <c r="R100" t="n">
-        <v>7075293</v>
+        <v>7075020</v>
       </c>
       <c r="S100" t="n">
         <v>10</v>
@@ -10700,12 +10700,12 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA100" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD100" t="b">
@@ -10736,10 +10736,10 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>55947422</v>
+        <v>55947357</v>
       </c>
       <c r="B101" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -10747,21 +10747,21 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I101" t="inlineStr"/>
@@ -10771,10 +10771,10 @@
         </is>
       </c>
       <c r="Q101" t="n">
-        <v>677865</v>
+        <v>678127</v>
       </c>
       <c r="R101" t="n">
-        <v>7075020</v>
+        <v>7075293</v>
       </c>
       <c r="S101" t="n">
         <v>10</v>
@@ -10801,12 +10801,12 @@
       </c>
       <c r="Y101" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA101" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD101" t="b">
@@ -10938,10 +10938,10 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>105311427</v>
+        <v>105311437</v>
       </c>
       <c r="B103" t="n">
-        <v>80083</v>
+        <v>78980</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -10949,34 +10949,34 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>6458</v>
+        <v>6425</v>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="P103" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q103" t="n">
-        <v>678865</v>
+        <v>678550</v>
       </c>
       <c r="R103" t="n">
-        <v>7076715</v>
+        <v>7075939</v>
       </c>
       <c r="S103" t="n">
         <v>5</v>
@@ -10998,7 +10998,7 @@
       </c>
       <c r="W103" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -11019,6 +11019,11 @@
       </c>
       <c r="AG103" t="b">
         <v>0</v>
+      </c>
+      <c r="AO103" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
       </c>
       <c r="AS103" t="inlineStr">
         <is>
@@ -11040,10 +11045,10 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>105311437</v>
+        <v>105311427</v>
       </c>
       <c r="B104" t="n">
-        <v>78980</v>
+        <v>80083</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -11051,34 +11056,34 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>6425</v>
+        <v>6458</v>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="P104" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q104" t="n">
-        <v>678550</v>
+        <v>678865</v>
       </c>
       <c r="R104" t="n">
-        <v>7075939</v>
+        <v>7076715</v>
       </c>
       <c r="S104" t="n">
         <v>5</v>
@@ -11100,7 +11105,7 @@
       </c>
       <c r="W104" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -11121,11 +11126,6 @@
       </c>
       <c r="AG104" t="b">
         <v>0</v>
-      </c>
-      <c r="AO104" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
       </c>
       <c r="AS104" t="inlineStr">
         <is>
@@ -13367,10 +13367,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>55947376</v>
+        <v>74093514</v>
       </c>
       <c r="B127" t="n">
-        <v>88654</v>
+        <v>91866</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -13378,34 +13378,36 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>510</v>
+        <v>5454</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Hornvaxskinn</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Crustoderma corneum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Bourdot &amp; Galzin) Nakasone</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="P127" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>679360</v>
+        <v>677682</v>
       </c>
       <c r="R127" t="n">
-        <v>7075659</v>
+        <v>7076872</v>
       </c>
       <c r="S127" t="n">
         <v>10</v>
@@ -13427,17 +13429,17 @@
       </c>
       <c r="W127" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y127" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA127" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD127" t="b">
@@ -13446,25 +13448,51 @@
       <c r="AE127" t="b">
         <v>0</v>
       </c>
+      <c r="AF127" t="inlineStr">
+        <is>
+          <t>mikroskoperad</t>
+        </is>
+      </c>
       <c r="AG127" t="b">
         <v>0</v>
       </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>Granlåga # Picea abies</t>
+        </is>
+      </c>
       <c r="AT127" t="inlineStr"/>
+      <c r="AU127" t="inlineStr">
+        <is>
+          <t>Karl-Henrik Larsson</t>
+        </is>
+      </c>
+      <c r="AV127" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="AW127" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX127" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY127" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Mikael Gudrunsson, Caspar Ström</t>
+        </is>
+      </c>
+      <c r="AY127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="n">
@@ -13771,10 +13799,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>105311657</v>
+        <v>55947376</v>
       </c>
       <c r="B131" t="n">
-        <v>78980</v>
+        <v>88654</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -13782,37 +13810,37 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="P131" t="inlineStr">
         <is>
-          <t>Lill-Rödtjärnen, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q131" t="n">
-        <v>679309</v>
+        <v>679360</v>
       </c>
       <c r="R131" t="n">
-        <v>7075699</v>
+        <v>7075659</v>
       </c>
       <c r="S131" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T131" t="inlineStr">
         <is>
@@ -13836,12 +13864,12 @@
       </c>
       <c r="Y131" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA131" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD131" t="b">
@@ -13852,36 +13880,30 @@
       </c>
       <c r="AG131" t="b">
         <v>0</v>
-      </c>
-      <c r="AO131" t="inlineStr">
-        <is>
-          <t>Med apotesier</t>
-        </is>
-      </c>
-      <c r="AS131" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT131" t="inlineStr"/>
       <c r="AW131" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX131" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY131" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY131" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>110513295</v>
+        <v>105311657</v>
       </c>
       <c r="B132" t="n">
-        <v>57657</v>
+        <v>78980</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -13889,51 +13911,37 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>1K</t>
-        </is>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>pulli/nyligen flygga ungar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="P132" t="inlineStr">
         <is>
-          <t>Skaltjärnen, Skaltjärnen, Ång</t>
+          <t>Lill-Rödtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q132" t="n">
-        <v>677712</v>
+        <v>679309</v>
       </c>
       <c r="R132" t="n">
-        <v>7074475</v>
+        <v>7075699</v>
       </c>
       <c r="S132" t="n">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="T132" t="inlineStr">
         <is>
@@ -13957,22 +13965,12 @@
       </c>
       <c r="Y132" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
-        </is>
-      </c>
-      <c r="Z132" t="inlineStr">
-        <is>
-          <t>11:16</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA132" t="inlineStr">
         <is>
-          <t>2023-07-02</t>
-        </is>
-      </c>
-      <c r="AB132" t="inlineStr">
-        <is>
-          <t>11:16</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD132" t="b">
@@ -13983,26 +13981,36 @@
       </c>
       <c r="AG132" t="b">
         <v>0</v>
+      </c>
+      <c r="AO132" t="inlineStr">
+        <is>
+          <t>Med apotesier</t>
+        </is>
+      </c>
+      <c r="AS132" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT132" t="inlineStr"/>
       <c r="AW132" t="inlineStr">
         <is>
-          <t>Patrik Tjärnström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX132" t="inlineStr">
         <is>
-          <t>Patrik Tjärnström</t>
+          <t>Tomas Rask</t>
         </is>
       </c>
       <c r="AY132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>74093514</v>
+        <v>110513295</v>
       </c>
       <c r="B133" t="n">
-        <v>91866</v>
+        <v>57657</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -14010,39 +14018,51 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>5454</v>
+        <v>100109</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Hornvaxskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Crustoderma corneum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>(Bourdot &amp; Galzin) Nakasone</t>
-        </is>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>1K</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>pulli/nyligen flygga ungar</t>
+        </is>
+      </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Skaltjärnen, Skaltjärnen, Ång</t>
         </is>
       </c>
       <c r="Q133" t="n">
-        <v>677682</v>
+        <v>677712</v>
       </c>
       <c r="R133" t="n">
-        <v>7076872</v>
+        <v>7074475</v>
       </c>
       <c r="S133" t="n">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="T133" t="inlineStr">
         <is>
@@ -14061,17 +14081,27 @@
       </c>
       <c r="W133" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y133" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="Z133" t="inlineStr">
+        <is>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AA133" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2023-07-02</t>
+        </is>
+      </c>
+      <c r="AB133" t="inlineStr">
+        <is>
+          <t>11:16</t>
         </is>
       </c>
       <c r="AD133" t="b">
@@ -14080,48 +14110,18 @@
       <c r="AE133" t="b">
         <v>0</v>
       </c>
-      <c r="AF133" t="inlineStr">
-        <is>
-          <t>mikroskoperad</t>
-        </is>
-      </c>
       <c r="AG133" t="b">
         <v>0</v>
       </c>
-      <c r="AJ133" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK133" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO133" t="inlineStr">
-        <is>
-          <t>Granlåga # Picea abies</t>
-        </is>
-      </c>
       <c r="AT133" t="inlineStr"/>
-      <c r="AU133" t="inlineStr">
-        <is>
-          <t>Karl-Henrik Larsson</t>
-        </is>
-      </c>
-      <c r="AV133" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
       <c r="AW133" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Patrik Tjärnström</t>
         </is>
       </c>
       <c r="AX133" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson, Caspar Ström</t>
+          <t>Patrik Tjärnström</t>
         </is>
       </c>
       <c r="AY133" t="inlineStr"/>
@@ -15649,10 +15649,10 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>105314965</v>
+        <v>55948226</v>
       </c>
       <c r="B149" t="n">
-        <v>91263</v>
+        <v>88654</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -15660,37 +15660,37 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="P149" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q149" t="n">
-        <v>679103</v>
+        <v>677454</v>
       </c>
       <c r="R149" t="n">
-        <v>7075844</v>
+        <v>7076879</v>
       </c>
       <c r="S149" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T149" t="inlineStr">
         <is>
@@ -15709,17 +15709,17 @@
       </c>
       <c r="W149" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y149" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA149" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD149" t="b">
@@ -15730,69 +15730,68 @@
       </c>
       <c r="AG149" t="b">
         <v>0</v>
-      </c>
-      <c r="AS149" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT149" t="inlineStr"/>
       <c r="AW149" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX149" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY149" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY149" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>105311426</v>
+        <v>55947401</v>
       </c>
       <c r="B150" t="n">
-        <v>80112</v>
+        <v>79179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E150" t="n">
-        <v>6462</v>
+        <v>1642</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Stuplav</t>
+          <t>Långskägg</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Nephroma bellum</t>
+          <t>Usnea longissima</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(Spreng.) Tuck.</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="P150" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q150" t="n">
-        <v>678865</v>
+        <v>679051</v>
       </c>
       <c r="R150" t="n">
-        <v>7076713</v>
+        <v>7075729</v>
       </c>
       <c r="S150" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T150" t="inlineStr">
         <is>
@@ -15811,17 +15810,17 @@
       </c>
       <c r="W150" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y150" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA150" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD150" t="b">
@@ -15832,53 +15831,52 @@
       </c>
       <c r="AG150" t="b">
         <v>0</v>
-      </c>
-      <c r="AS150" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT150" t="inlineStr"/>
       <c r="AW150" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX150" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY150" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY150" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>54482896</v>
+        <v>55948225</v>
       </c>
       <c r="B151" t="n">
-        <v>91210</v>
+        <v>91263</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5447</v>
+        <v>5432</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -15888,10 +15886,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>677556</v>
+        <v>677442</v>
       </c>
       <c r="R151" t="n">
-        <v>7076891</v>
+        <v>7076884</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -15938,60 +15936,64 @@
       <c r="AT151" t="inlineStr"/>
       <c r="AW151" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX151" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY151" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY151" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>105311656</v>
+        <v>54482896</v>
       </c>
       <c r="B152" t="n">
-        <v>79012</v>
+        <v>91210</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>185</v>
+        <v>5447</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>Lill-Rödtjärnen, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>679306</v>
+        <v>677556</v>
       </c>
       <c r="R152" t="n">
-        <v>7075676</v>
+        <v>7076891</v>
       </c>
       <c r="S152" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -16010,17 +16012,17 @@
       </c>
       <c r="W152" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD152" t="b">
@@ -16031,31 +16033,26 @@
       </c>
       <c r="AG152" t="b">
         <v>0</v>
-      </c>
-      <c r="AS152" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT152" t="inlineStr"/>
       <c r="AW152" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX152" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>105311441</v>
+        <v>54482332</v>
       </c>
       <c r="B153" t="n">
-        <v>80083</v>
+        <v>79012</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -16063,37 +16060,37 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>6458</v>
+        <v>185</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="P153" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>678657</v>
+        <v>678076</v>
       </c>
       <c r="R153" t="n">
-        <v>7075940</v>
+        <v>7077080</v>
       </c>
       <c r="S153" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T153" t="inlineStr">
         <is>
@@ -16112,17 +16109,17 @@
       </c>
       <c r="W153" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD153" t="b">
@@ -16133,36 +16130,26 @@
       </c>
       <c r="AG153" t="b">
         <v>0</v>
-      </c>
-      <c r="AO153" t="inlineStr">
-        <is>
-          <t>På björk!</t>
-        </is>
-      </c>
-      <c r="AS153" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT153" t="inlineStr"/>
       <c r="AW153" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX153" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>55948226</v>
+        <v>105314965</v>
       </c>
       <c r="B154" t="n">
-        <v>88654</v>
+        <v>91263</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -16170,37 +16157,37 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>677454</v>
+        <v>679103</v>
       </c>
       <c r="R154" t="n">
-        <v>7076879</v>
+        <v>7075844</v>
       </c>
       <c r="S154" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -16219,17 +16206,17 @@
       </c>
       <c r="W154" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD154" t="b">
@@ -16240,68 +16227,69 @@
       </c>
       <c r="AG154" t="b">
         <v>0</v>
+      </c>
+      <c r="AS154" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT154" t="inlineStr"/>
       <c r="AW154" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX154" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY154" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>55947401</v>
+        <v>105311441</v>
       </c>
       <c r="B155" t="n">
-        <v>79179</v>
+        <v>80083</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>1642</v>
+        <v>6458</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Långskägg</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Usnea longissima</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>679051</v>
+        <v>678657</v>
       </c>
       <c r="R155" t="n">
-        <v>7075729</v>
+        <v>7075940</v>
       </c>
       <c r="S155" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -16325,12 +16313,12 @@
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AD155" t="b">
@@ -16341,30 +16329,36 @@
       </c>
       <c r="AG155" t="b">
         <v>0</v>
+      </c>
+      <c r="AO155" t="inlineStr">
+        <is>
+          <t>På björk!</t>
+        </is>
+      </c>
+      <c r="AS155" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT155" t="inlineStr"/>
       <c r="AW155" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX155" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY155" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>55948225</v>
+        <v>105311656</v>
       </c>
       <c r="B156" t="n">
-        <v>91263</v>
+        <v>79012</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -16372,37 +16366,37 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5432</v>
+        <v>185</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Lill-Rödtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>677442</v>
+        <v>679306</v>
       </c>
       <c r="R156" t="n">
-        <v>7076884</v>
+        <v>7075676</v>
       </c>
       <c r="S156" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -16421,17 +16415,17 @@
       </c>
       <c r="W156" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD156" t="b">
@@ -16442,52 +16436,53 @@
       </c>
       <c r="AG156" t="b">
         <v>0</v>
+      </c>
+      <c r="AS156" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT156" t="inlineStr"/>
       <c r="AW156" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX156" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY156" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>54482332</v>
+        <v>105311426</v>
       </c>
       <c r="B157" t="n">
-        <v>79012</v>
+        <v>80112</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E157" t="n">
-        <v>185</v>
+        <v>6462</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Stuplav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Nephroma bellum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Spreng.) Tuck.</t>
         </is>
       </c>
       <c r="I157" t="inlineStr"/>
@@ -16497,13 +16492,13 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>678076</v>
+        <v>678865</v>
       </c>
       <c r="R157" t="n">
-        <v>7077080</v>
+        <v>7076713</v>
       </c>
       <c r="S157" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T157" t="inlineStr">
         <is>
@@ -16527,12 +16522,12 @@
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AD157" t="b">
@@ -16543,16 +16538,21 @@
       </c>
       <c r="AG157" t="b">
         <v>0</v>
+      </c>
+      <c r="AS157" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX157" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Tomas Rask</t>
         </is>
       </c>
       <c r="AY157" t="inlineStr"/>
@@ -17584,10 +17584,10 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>54482473</v>
+        <v>54482330</v>
       </c>
       <c r="B168" t="n">
-        <v>91259</v>
+        <v>79012</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -17595,21 +17595,21 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>1204</v>
+        <v>185</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I168" t="inlineStr"/>
@@ -17619,10 +17619,10 @@
         </is>
       </c>
       <c r="Q168" t="n">
-        <v>678072</v>
+        <v>677610</v>
       </c>
       <c r="R168" t="n">
-        <v>7077076</v>
+        <v>7077112</v>
       </c>
       <c r="S168" t="n">
         <v>10</v>
@@ -17681,32 +17681,32 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>54482429</v>
+        <v>54482308</v>
       </c>
       <c r="B169" t="n">
-        <v>82792</v>
+        <v>80118</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E169" t="n">
-        <v>1312</v>
+        <v>6463</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I169" t="inlineStr"/>
@@ -17716,10 +17716,10 @@
         </is>
       </c>
       <c r="Q169" t="n">
-        <v>678261</v>
+        <v>678621</v>
       </c>
       <c r="R169" t="n">
-        <v>7077355</v>
+        <v>7077549</v>
       </c>
       <c r="S169" t="n">
         <v>10</v>
@@ -17778,10 +17778,10 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>54482330</v>
+        <v>54482473</v>
       </c>
       <c r="B170" t="n">
-        <v>79012</v>
+        <v>91259</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -17789,21 +17789,21 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>185</v>
+        <v>1204</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I170" t="inlineStr"/>
@@ -17813,10 +17813,10 @@
         </is>
       </c>
       <c r="Q170" t="n">
-        <v>677610</v>
+        <v>678072</v>
       </c>
       <c r="R170" t="n">
-        <v>7077112</v>
+        <v>7077076</v>
       </c>
       <c r="S170" t="n">
         <v>10</v>
@@ -17875,32 +17875,32 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>54482308</v>
+        <v>54482429</v>
       </c>
       <c r="B171" t="n">
-        <v>80118</v>
+        <v>82792</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E171" t="n">
-        <v>6463</v>
+        <v>1312</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I171" t="inlineStr"/>
@@ -17910,10 +17910,10 @@
         </is>
       </c>
       <c r="Q171" t="n">
-        <v>678621</v>
+        <v>678261</v>
       </c>
       <c r="R171" t="n">
-        <v>7077549</v>
+        <v>7077355</v>
       </c>
       <c r="S171" t="n">
         <v>10</v>
@@ -19710,10 +19710,10 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>55947374</v>
+        <v>55948244</v>
       </c>
       <c r="B189" t="n">
-        <v>91245</v>
+        <v>88654</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -19721,34 +19721,34 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="P189" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q189" t="n">
-        <v>679249</v>
+        <v>678584</v>
       </c>
       <c r="R189" t="n">
-        <v>7075841</v>
+        <v>7077016</v>
       </c>
       <c r="S189" t="n">
         <v>10</v>
@@ -19770,17 +19770,17 @@
       </c>
       <c r="W189" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y189" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA189" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD189" t="b">
@@ -19811,10 +19811,10 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>55947356</v>
+        <v>55948229</v>
       </c>
       <c r="B190" t="n">
-        <v>80083</v>
+        <v>88654</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -19822,34 +19822,34 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="P190" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q190" t="n">
-        <v>678163</v>
+        <v>677652</v>
       </c>
       <c r="R190" t="n">
-        <v>7075274</v>
+        <v>7076866</v>
       </c>
       <c r="S190" t="n">
         <v>10</v>
@@ -19871,17 +19871,17 @@
       </c>
       <c r="W190" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y190" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA190" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD190" t="b">
@@ -19912,10 +19912,10 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>55947415</v>
+        <v>55948232</v>
       </c>
       <c r="B191" t="n">
-        <v>80083</v>
+        <v>88654</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -19923,34 +19923,34 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>6458</v>
+        <v>510</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="P191" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q191" t="n">
-        <v>678227</v>
+        <v>677809</v>
       </c>
       <c r="R191" t="n">
-        <v>7075252</v>
+        <v>7077210</v>
       </c>
       <c r="S191" t="n">
         <v>10</v>
@@ -19972,17 +19972,17 @@
       </c>
       <c r="W191" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y191" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA191" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD191" t="b">
@@ -20013,10 +20013,10 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>55947389</v>
+        <v>55947374</v>
       </c>
       <c r="B192" t="n">
-        <v>57657</v>
+        <v>91245</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -20024,39 +20024,34 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="M192" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="P192" t="inlineStr">
         <is>
           <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q192" t="n">
-        <v>678125</v>
+        <v>679249</v>
       </c>
       <c r="R192" t="n">
-        <v>7075937</v>
+        <v>7075841</v>
       </c>
       <c r="S192" t="n">
         <v>10</v>
@@ -20083,12 +20078,12 @@
       </c>
       <c r="Y192" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA192" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD192" t="b">
@@ -20119,32 +20114,32 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>55948244</v>
+        <v>55948227</v>
       </c>
       <c r="B193" t="n">
-        <v>88654</v>
+        <v>91210</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E193" t="n">
-        <v>510</v>
+        <v>5447</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I193" t="inlineStr"/>
@@ -20154,10 +20149,10 @@
         </is>
       </c>
       <c r="Q193" t="n">
-        <v>678584</v>
+        <v>677491</v>
       </c>
       <c r="R193" t="n">
-        <v>7077016</v>
+        <v>7076864</v>
       </c>
       <c r="S193" t="n">
         <v>10</v>
@@ -20220,10 +20215,10 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>55948229</v>
+        <v>55947389</v>
       </c>
       <c r="B194" t="n">
-        <v>88654</v>
+        <v>57657</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -20231,34 +20226,39 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I194" t="inlineStr"/>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="P194" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q194" t="n">
-        <v>677652</v>
+        <v>678125</v>
       </c>
       <c r="R194" t="n">
-        <v>7076866</v>
+        <v>7075937</v>
       </c>
       <c r="S194" t="n">
         <v>10</v>
@@ -20280,17 +20280,17 @@
       </c>
       <c r="W194" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y194" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA194" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD194" t="b">
@@ -20321,10 +20321,10 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>55948232</v>
+        <v>55947356</v>
       </c>
       <c r="B195" t="n">
-        <v>88654</v>
+        <v>80083</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -20332,34 +20332,34 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>510</v>
+        <v>6458</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A.Curtis.) Pouzar</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="P195" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q195" t="n">
-        <v>677809</v>
+        <v>678163</v>
       </c>
       <c r="R195" t="n">
-        <v>7077210</v>
+        <v>7075274</v>
       </c>
       <c r="S195" t="n">
         <v>10</v>
@@ -20381,17 +20381,17 @@
       </c>
       <c r="W195" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y195" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA195" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD195" t="b">
@@ -20422,32 +20422,32 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>55947386</v>
+        <v>55947415</v>
       </c>
       <c r="B196" t="n">
-        <v>98278</v>
+        <v>80083</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E196" t="n">
-        <v>219790</v>
+        <v>6458</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I196" t="inlineStr"/>
@@ -20457,10 +20457,10 @@
         </is>
       </c>
       <c r="Q196" t="n">
-        <v>677702</v>
+        <v>678227</v>
       </c>
       <c r="R196" t="n">
-        <v>7075892</v>
+        <v>7075252</v>
       </c>
       <c r="S196" t="n">
         <v>10</v>
@@ -20523,10 +20523,10 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>55948227</v>
+        <v>55947386</v>
       </c>
       <c r="B197" t="n">
-        <v>91210</v>
+        <v>98278</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -20534,34 +20534,34 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5447</v>
+        <v>219790</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="P197" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q197" t="n">
-        <v>677491</v>
+        <v>677702</v>
       </c>
       <c r="R197" t="n">
-        <v>7076864</v>
+        <v>7075892</v>
       </c>
       <c r="S197" t="n">
         <v>10</v>
@@ -20583,17 +20583,17 @@
       </c>
       <c r="W197" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA197" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD197" t="b">
@@ -20624,10 +20624,10 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>105314907</v>
+        <v>105311655</v>
       </c>
       <c r="B198" t="n">
-        <v>91446</v>
+        <v>79179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -20635,34 +20635,34 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>48</v>
+        <v>1642</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Långskägg</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Usnea longissima</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>(Romell) Bondartsev &amp; Singer</t>
+          <t>Ach.</t>
         </is>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="P198" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Lill-Rödtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q198" t="n">
-        <v>678728</v>
+        <v>679554</v>
       </c>
       <c r="R198" t="n">
-        <v>7076685</v>
+        <v>7075581</v>
       </c>
       <c r="S198" t="n">
         <v>5</v>
@@ -20684,17 +20684,17 @@
       </c>
       <c r="W198" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA198" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD198" t="b">
@@ -20726,45 +20726,45 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>105311655</v>
+        <v>105310581</v>
       </c>
       <c r="B199" t="n">
-        <v>79179</v>
+        <v>95594</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E199" t="n">
-        <v>1642</v>
+        <v>2809</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>Långskägg</t>
+          <t>Mörk husmossa</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Usnea longissima</t>
+          <t>Hylocomiastrum umbratum</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Ach.</t>
+          <t>(Hedw.) M.Fleisch.</t>
         </is>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="P199" t="inlineStr">
         <is>
-          <t>Lill-Rödtjärnen, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q199" t="n">
-        <v>679554</v>
+        <v>678428</v>
       </c>
       <c r="R199" t="n">
-        <v>7075581</v>
+        <v>7076440</v>
       </c>
       <c r="S199" t="n">
         <v>5</v>
@@ -20786,17 +20786,17 @@
       </c>
       <c r="W199" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y199" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AA199" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AD199" t="b">
@@ -20828,45 +20828,45 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>105310581</v>
+        <v>105311434</v>
       </c>
       <c r="B200" t="n">
-        <v>95594</v>
+        <v>80083</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E200" t="n">
-        <v>2809</v>
+        <v>6458</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mörk husmossa</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Hylocomiastrum umbratum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>(Hedw.) M.Fleisch.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="P200" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q200" t="n">
-        <v>678428</v>
+        <v>679221</v>
       </c>
       <c r="R200" t="n">
-        <v>7076440</v>
+        <v>7076300</v>
       </c>
       <c r="S200" t="n">
         <v>5</v>
@@ -20930,45 +20930,45 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>105311434</v>
+        <v>105314907</v>
       </c>
       <c r="B201" t="n">
-        <v>80083</v>
+        <v>91446</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E201" t="n">
-        <v>6458</v>
+        <v>48</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Romell) Bondartsev &amp; Singer</t>
         </is>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="P201" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q201" t="n">
-        <v>679221</v>
+        <v>678728</v>
       </c>
       <c r="R201" t="n">
-        <v>7076300</v>
+        <v>7076685</v>
       </c>
       <c r="S201" t="n">
         <v>5</v>
@@ -21032,10 +21032,10 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>105311446</v>
+        <v>113679621</v>
       </c>
       <c r="B202" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -21043,37 +21043,37 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="P202" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Högslätten, Ång</t>
         </is>
       </c>
       <c r="Q202" t="n">
-        <v>679041</v>
+        <v>678769</v>
       </c>
       <c r="R202" t="n">
-        <v>7075877</v>
+        <v>7077372</v>
       </c>
       <c r="S202" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T202" t="inlineStr">
         <is>
@@ -21092,17 +21092,17 @@
       </c>
       <c r="W202" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y202" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AA202" t="inlineStr">
         <is>
-          <t>2022-09-20</t>
+          <t>2023-05-31</t>
         </is>
       </c>
       <c r="AD202" t="b">
@@ -21113,11 +21113,6 @@
       </c>
       <c r="AG202" t="b">
         <v>0</v>
-      </c>
-      <c r="AO202" t="inlineStr">
-        <is>
-          <t>Rikligt</t>
-        </is>
       </c>
       <c r="AS202" t="inlineStr">
         <is>
@@ -21132,17 +21127,21 @@
       </c>
       <c r="AX202" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY202" t="inlineStr"/>
+          <t>Helene Andersson, Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY202" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>113679621</v>
+        <v>105311446</v>
       </c>
       <c r="B203" t="n">
-        <v>79012</v>
+        <v>78980</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -21150,37 +21149,37 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>185</v>
+        <v>6425</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="P203" t="inlineStr">
         <is>
-          <t>Högslätten, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q203" t="n">
-        <v>678769</v>
+        <v>679041</v>
       </c>
       <c r="R203" t="n">
-        <v>7077372</v>
+        <v>7075877</v>
       </c>
       <c r="S203" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T203" t="inlineStr">
         <is>
@@ -21199,17 +21198,17 @@
       </c>
       <c r="W203" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y203" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AA203" t="inlineStr">
         <is>
-          <t>2023-05-31</t>
+          <t>2022-09-20</t>
         </is>
       </c>
       <c r="AD203" t="b">
@@ -21220,6 +21219,11 @@
       </c>
       <c r="AG203" t="b">
         <v>0</v>
+      </c>
+      <c r="AO203" t="inlineStr">
+        <is>
+          <t>Rikligt</t>
+        </is>
       </c>
       <c r="AS203" t="inlineStr">
         <is>
@@ -21234,66 +21238,55 @@
       </c>
       <c r="AX203" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
-        </is>
-      </c>
+          <t>Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>53402384</v>
+        <v>105311659</v>
       </c>
       <c r="B204" t="n">
-        <v>56849</v>
+        <v>78980</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E204" t="n">
-        <v>100138</v>
+        <v>6425</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Tjäder</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Tetrao urogallus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Linnaeus, 1758</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>färsk spillning</t>
-        </is>
-      </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>Nördberget, Glesskallberget, Ång</t>
+          <t>Lill-Rödtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q204" t="n">
-        <v>678043</v>
+        <v>679287</v>
       </c>
       <c r="R204" t="n">
-        <v>7075605</v>
+        <v>7075739</v>
       </c>
       <c r="S204" t="n">
-        <v>270</v>
+        <v>5</v>
       </c>
       <c r="T204" t="inlineStr">
         <is>
@@ -21317,12 +21310,12 @@
       </c>
       <c r="Y204" t="inlineStr">
         <is>
-          <t>2015-05-14</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA204" t="inlineStr">
         <is>
-          <t>2015-05-14</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD204" t="b">
@@ -21333,26 +21326,36 @@
       </c>
       <c r="AG204" t="b">
         <v>0</v>
+      </c>
+      <c r="AO204" t="inlineStr">
+        <is>
+          <t>Rikligt draperade</t>
+        </is>
+      </c>
+      <c r="AS204" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT204" t="inlineStr"/>
       <c r="AW204" t="inlineStr">
         <is>
-          <t>Elias Forsberg</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX204" t="inlineStr">
         <is>
-          <t>Elias Forsberg</t>
+          <t>Tomas Rask</t>
         </is>
       </c>
       <c r="AY204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>55947395</v>
+        <v>105311649</v>
       </c>
       <c r="B205" t="n">
-        <v>91245</v>
+        <v>80083</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -21360,37 +21363,37 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>1202</v>
+        <v>6458</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="P205" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Sven-Jons-Ankemyran, Ång</t>
         </is>
       </c>
       <c r="Q205" t="n">
-        <v>679148</v>
+        <v>679175</v>
       </c>
       <c r="R205" t="n">
-        <v>7076116</v>
+        <v>7075718</v>
       </c>
       <c r="S205" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T205" t="inlineStr">
         <is>
@@ -21414,12 +21417,12 @@
       </c>
       <c r="Y205" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AA205" t="inlineStr">
         <is>
-          <t>2015-07-15</t>
+          <t>2022-09-15</t>
         </is>
       </c>
       <c r="AD205" t="b">
@@ -21430,65 +21433,68 @@
       </c>
       <c r="AG205" t="b">
         <v>0</v>
+      </c>
+      <c r="AS205" t="inlineStr">
+        <is>
+          <t>Tomas Rask</t>
+        </is>
       </c>
       <c r="AT205" t="inlineStr"/>
       <c r="AW205" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Helene Andersson</t>
         </is>
       </c>
       <c r="AX205" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY205" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>55947379</v>
+        <v>54482482</v>
       </c>
       <c r="B206" t="n">
-        <v>91699</v>
+        <v>91259</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E206" t="n">
-        <v>1209</v>
+        <v>1204</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="P206" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q206" t="n">
-        <v>679353</v>
+        <v>677442</v>
       </c>
       <c r="R206" t="n">
-        <v>7075567</v>
+        <v>7076895</v>
       </c>
       <c r="S206" t="n">
         <v>10</v>
@@ -21510,17 +21516,17 @@
       </c>
       <c r="W206" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA206" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD206" t="b">
@@ -21529,32 +21535,34 @@
       <c r="AE206" t="b">
         <v>0</v>
       </c>
+      <c r="AF206" t="inlineStr"/>
       <c r="AG206" t="b">
         <v>0</v>
+      </c>
+      <c r="AO206" t="inlineStr">
+        <is>
+          <t>Tallåga</t>
+        </is>
       </c>
       <c r="AT206" t="inlineStr"/>
       <c r="AW206" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX206" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY206" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>55947362</v>
+        <v>54482407</v>
       </c>
       <c r="B207" t="n">
-        <v>91263</v>
+        <v>78980</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -21562,34 +21570,34 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>5432</v>
+        <v>6425</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="P207" t="inlineStr">
         <is>
-          <t>Nördberget, Ång</t>
+          <t>Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q207" t="n">
-        <v>677770</v>
+        <v>677686</v>
       </c>
       <c r="R207" t="n">
-        <v>7075503</v>
+        <v>7077010</v>
       </c>
       <c r="S207" t="n">
         <v>10</v>
@@ -21611,17 +21619,17 @@
       </c>
       <c r="W207" t="inlineStr">
         <is>
-          <t>Trehörningsjö</t>
+          <t>Björna</t>
         </is>
       </c>
       <c r="Y207" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AA207" t="inlineStr">
         <is>
-          <t>2015-06-03</t>
+          <t>2015-06-04</t>
         </is>
       </c>
       <c r="AD207" t="b">
@@ -21636,66 +21644,67 @@
       <c r="AT207" t="inlineStr"/>
       <c r="AW207" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
+          <t>Caspar Ström</t>
         </is>
       </c>
       <c r="AX207" t="inlineStr">
         <is>
-          <t>Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY207" t="inlineStr">
-        <is>
-          <t>Naturvärdesinventering Y-län</t>
-        </is>
-      </c>
+          <t>Caspar Ström, Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>54482482</v>
+        <v>53402384</v>
       </c>
       <c r="B208" t="n">
-        <v>91259</v>
+        <v>56849</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E208" t="n">
-        <v>1204</v>
+        <v>100138</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tjäder</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Tetrao urogallus</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>Linnaeus, 1758</t>
         </is>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>färsk spillning</t>
+        </is>
+      </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Glesskallberget, Ång</t>
         </is>
       </c>
       <c r="Q208" t="n">
-        <v>677442</v>
+        <v>678043</v>
       </c>
       <c r="R208" t="n">
-        <v>7076895</v>
+        <v>7075605</v>
       </c>
       <c r="S208" t="n">
-        <v>10</v>
+        <v>270</v>
       </c>
       <c r="T208" t="inlineStr">
         <is>
@@ -21714,17 +21723,17 @@
       </c>
       <c r="W208" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y208" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-05-14</t>
         </is>
       </c>
       <c r="AA208" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-05-14</t>
         </is>
       </c>
       <c r="AD208" t="b">
@@ -21733,34 +21742,28 @@
       <c r="AE208" t="b">
         <v>0</v>
       </c>
-      <c r="AF208" t="inlineStr"/>
       <c r="AG208" t="b">
         <v>0</v>
-      </c>
-      <c r="AO208" t="inlineStr">
-        <is>
-          <t>Tallåga</t>
-        </is>
       </c>
       <c r="AT208" t="inlineStr"/>
       <c r="AW208" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Elias Forsberg</t>
         </is>
       </c>
       <c r="AX208" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
+          <t>Elias Forsberg</t>
         </is>
       </c>
       <c r="AY208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>54482407</v>
+        <v>55947362</v>
       </c>
       <c r="B209" t="n">
-        <v>78980</v>
+        <v>91263</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -21768,34 +21771,34 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="P209" t="inlineStr">
         <is>
-          <t>Glesskallberget, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q209" t="n">
-        <v>677686</v>
+        <v>677770</v>
       </c>
       <c r="R209" t="n">
-        <v>7077010</v>
+        <v>7075503</v>
       </c>
       <c r="S209" t="n">
         <v>10</v>
@@ -21817,17 +21820,17 @@
       </c>
       <c r="W209" t="inlineStr">
         <is>
-          <t>Björna</t>
+          <t>Trehörningsjö</t>
         </is>
       </c>
       <c r="Y209" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>2015-06-04</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD209" t="b">
@@ -21842,22 +21845,26 @@
       <c r="AT209" t="inlineStr"/>
       <c r="AW209" t="inlineStr">
         <is>
-          <t>Caspar Ström</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX209" t="inlineStr">
         <is>
-          <t>Caspar Ström, Mikael Gudrunsson</t>
-        </is>
-      </c>
-      <c r="AY209" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY209" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>113679611</v>
+        <v>55947395</v>
       </c>
       <c r="B210" t="n">
-        <v>79012</v>
+        <v>91245</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -21865,34 +21872,34 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>185</v>
+        <v>1202</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>Violettgrå tagellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Bryoria nadvornikiana</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="P210" t="inlineStr">
         <is>
-          <t>Nördbergsmyran, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q210" t="n">
-        <v>678395</v>
+        <v>679148</v>
       </c>
       <c r="R210" t="n">
-        <v>7075109</v>
+        <v>7076116</v>
       </c>
       <c r="S210" t="n">
         <v>10</v>
@@ -21919,12 +21926,12 @@
       </c>
       <c r="Y210" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>2015-07-15</t>
         </is>
       </c>
       <c r="AD210" t="b">
@@ -21935,73 +21942,68 @@
       </c>
       <c r="AG210" t="b">
         <v>0</v>
-      </c>
-      <c r="AS210" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT210" t="inlineStr"/>
       <c r="AW210" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX210" t="inlineStr">
         <is>
-          <t>Helene Andersson, Tomas Rask</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AY210" t="inlineStr">
         <is>
-          <t xml:space="preserve">Naturvärdesinventering </t>
+          <t>Naturvärdesinventering Y-län</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>105311649</v>
+        <v>55947379</v>
       </c>
       <c r="B211" t="n">
-        <v>80083</v>
+        <v>91699</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>6458</v>
+        <v>1209</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="P211" t="inlineStr">
         <is>
-          <t>Sven-Jons-Ankemyran, Ång</t>
+          <t>Nördberget, Ång</t>
         </is>
       </c>
       <c r="Q211" t="n">
-        <v>679175</v>
+        <v>679353</v>
       </c>
       <c r="R211" t="n">
-        <v>7075718</v>
+        <v>7075567</v>
       </c>
       <c r="S211" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T211" t="inlineStr">
         <is>
@@ -22025,12 +22027,12 @@
       </c>
       <c r="Y211" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AA211" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2015-06-03</t>
         </is>
       </c>
       <c r="AD211" t="b">
@@ -22041,31 +22043,30 @@
       </c>
       <c r="AG211" t="b">
         <v>0</v>
-      </c>
-      <c r="AS211" t="inlineStr">
-        <is>
-          <t>Tomas Rask</t>
-        </is>
       </c>
       <c r="AT211" t="inlineStr"/>
       <c r="AW211" t="inlineStr">
         <is>
-          <t>Helene Andersson</t>
+          <t>Mikael Gudrunsson</t>
         </is>
       </c>
       <c r="AX211" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY211" t="inlineStr"/>
+          <t>Mikael Gudrunsson</t>
+        </is>
+      </c>
+      <c r="AY211" t="inlineStr">
+        <is>
+          <t>Naturvärdesinventering Y-län</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>105311659</v>
+        <v>113679611</v>
       </c>
       <c r="B212" t="n">
-        <v>78980</v>
+        <v>79012</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -22073,37 +22074,37 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>6425</v>
+        <v>185</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Violettgrå tagellav</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Bryoria nadvornikiana</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Gyeln.) Brodo &amp; D.Hawksw.</t>
         </is>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="P212" t="inlineStr">
         <is>
-          <t>Lill-Rödtjärnen, Ång</t>
+          <t>Nördbergsmyran, Ång</t>
         </is>
       </c>
       <c r="Q212" t="n">
-        <v>679287</v>
+        <v>678395</v>
       </c>
       <c r="R212" t="n">
-        <v>7075739</v>
+        <v>7075109</v>
       </c>
       <c r="S212" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T212" t="inlineStr">
         <is>
@@ -22127,12 +22128,12 @@
       </c>
       <c r="Y212" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="AA212" t="inlineStr">
         <is>
-          <t>2022-09-15</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="AD212" t="b">
@@ -22143,11 +22144,6 @@
       </c>
       <c r="AG212" t="b">
         <v>0</v>
-      </c>
-      <c r="AO212" t="inlineStr">
-        <is>
-          <t>Rikligt draperade</t>
-        </is>
       </c>
       <c r="AS212" t="inlineStr">
         <is>
@@ -22162,10 +22158,14 @@
       </c>
       <c r="AX212" t="inlineStr">
         <is>
-          <t>Tomas Rask</t>
-        </is>
-      </c>
-      <c r="AY212" t="inlineStr"/>
+          <t>Helene Andersson, Tomas Rask</t>
+        </is>
+      </c>
+      <c r="AY212" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Naturvärdesinventering </t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
